--- a/NVWA DTV/Login.xlsx
+++ b/NVWA DTV/Login.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="528" windowWidth="16956" windowHeight="7356"/>
+    <workbookView xWindow="135" yWindow="525" windowWidth="16950" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Persoon" sheetId="1" r:id="rId1"/>
     <sheet name="SESSION" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -23,15 +23,9 @@
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>Persoon</t>
-  </si>
-  <si>
     <t>SESSION</t>
   </si>
   <si>
-    <t>[Persoon]</t>
-  </si>
-  <si>
     <t>[SESSION]</t>
   </si>
   <si>
@@ -51,6 +45,12 @@
   </si>
   <si>
     <t>wachtwoord</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>[Account]</t>
   </si>
 </sst>
 </file>
@@ -90,7 +90,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -103,9 +103,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -143,7 +143,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -215,7 +215,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,27 +391,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -420,7 +422,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -434,22 +436,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -460,7 +462,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/NVWA DTV/Login.xlsx
+++ b/NVWA DTV/Login.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="525" windowWidth="16950" windowHeight="7350"/>
+    <workbookView xWindow="11604" yWindow="-12" windowWidth="11448" windowHeight="4932"/>
   </bookViews>
   <sheets>
-    <sheet name="Persoon" sheetId="1" r:id="rId1"/>
+    <sheet name="Account" sheetId="3" r:id="rId1"/>
     <sheet name="SESSION" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="75">
   <si>
     <t>Loginnaam</t>
   </si>
   <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
     <t>SESSION</t>
   </si>
   <si>
@@ -51,6 +51,198 @@
   </si>
   <si>
     <t>[Account]</t>
+  </si>
+  <si>
+    <t>Roos Wijk</t>
+  </si>
+  <si>
+    <t>Luuk Scholten</t>
+  </si>
+  <si>
+    <t>P&amp;O</t>
+  </si>
+  <si>
+    <t>welkom</t>
+  </si>
+  <si>
+    <t>Nova van de Brink</t>
+  </si>
+  <si>
+    <t>Olivier Kramer</t>
+  </si>
+  <si>
+    <t>Noud Veenstra</t>
+  </si>
+  <si>
+    <t>Floor Kuiper</t>
+  </si>
+  <si>
+    <t>Sanne Post</t>
+  </si>
+  <si>
+    <t>Tess van Veen</t>
+  </si>
+  <si>
+    <t>Iris Kuipers</t>
+  </si>
+  <si>
+    <t>Sofie de Jonge</t>
+  </si>
+  <si>
+    <t>Liam Peeters</t>
+  </si>
+  <si>
+    <t>Levi Huisman</t>
+  </si>
+  <si>
+    <t>Noah Blom</t>
+  </si>
+  <si>
+    <t>Emily Prins</t>
+  </si>
+  <si>
+    <t>Lars van de Wal</t>
+  </si>
+  <si>
+    <t>Anna van Dam</t>
+  </si>
+  <si>
+    <t>Stijn Koster</t>
+  </si>
+  <si>
+    <t>Sven Verhoeven</t>
+  </si>
+  <si>
+    <t>Fenna Maas</t>
+  </si>
+  <si>
+    <t>Luca Hoekstra</t>
+  </si>
+  <si>
+    <t>Feline van de Ven</t>
+  </si>
+  <si>
+    <t>Sophie van Vliet</t>
+  </si>
+  <si>
+    <t>Nina Willems</t>
+  </si>
+  <si>
+    <t>Tim van Beek</t>
+  </si>
+  <si>
+    <t>Leidinggevende</t>
+  </si>
+  <si>
+    <t>Loïs Schouten</t>
+  </si>
+  <si>
+    <t>Ties van der Heijden</t>
+  </si>
+  <si>
+    <t>Jill de Bruin</t>
+  </si>
+  <si>
+    <t>Noor de Bruijn</t>
+  </si>
+  <si>
+    <t>Jens van den Broek</t>
+  </si>
+  <si>
+    <t>Vince van de Veen</t>
+  </si>
+  <si>
+    <t>Medewerker</t>
+  </si>
+  <si>
+    <t>Sam van den Heuvel</t>
+  </si>
+  <si>
+    <t>Zoë Vermeulen</t>
+  </si>
+  <si>
+    <t>Lynn de Haan</t>
+  </si>
+  <si>
+    <t>Adam Jacobs</t>
+  </si>
+  <si>
+    <t>Tijn Kok</t>
+  </si>
+  <si>
+    <t>Vera van der Linden</t>
+  </si>
+  <si>
+    <t>Nora van de Meer</t>
+  </si>
+  <si>
+    <t>Siem de Graaf</t>
+  </si>
+  <si>
+    <t>Milan Smits</t>
+  </si>
+  <si>
+    <t>Liv Dijkstra</t>
+  </si>
+  <si>
+    <t>Amy de Wit</t>
+  </si>
+  <si>
+    <t>Noa Brouwer</t>
+  </si>
+  <si>
+    <t>Max Dekker</t>
+  </si>
+  <si>
+    <t>Lotte van Leeuwen</t>
+  </si>
+  <si>
+    <t>Mats Hendriks</t>
+  </si>
+  <si>
+    <t>Benjamin Peters</t>
+  </si>
+  <si>
+    <t>Eva Vos</t>
+  </si>
+  <si>
+    <t>Jayden Bos</t>
+  </si>
+  <si>
+    <t>Naomi de Groot</t>
+  </si>
+  <si>
+    <t>Jurre Mulder</t>
+  </si>
+  <si>
+    <t>Lucas de Boer</t>
+  </si>
+  <si>
+    <t>Julia Meijer</t>
+  </si>
+  <si>
+    <t>David Smit</t>
+  </si>
+  <si>
+    <t>Cas Visser</t>
+  </si>
+  <si>
+    <t>FAB</t>
+  </si>
+  <si>
+    <t>Julian Janssen</t>
+  </si>
+  <si>
+    <t>Eline Bakker</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>rol</t>
   </si>
 </sst>
 </file>
@@ -90,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -102,10 +294,304 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="voor runtime loader"/>
+      <sheetName val="voor debugging"/>
+      <sheetName val="adhoc - Roosters "/>
+      <sheetName val="Arbeidsmodaliteiten"/>
+      <sheetName val="Modaliteit"/>
+      <sheetName val="Variables"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="A3">
+            <v>7148691</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>7151751</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>20045763</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>20045773</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>20046068</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>20046310</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>20046336</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>20046357</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>20046480</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>20046490</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>20046544</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>20046555</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>20046575</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>20046636</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>20046659</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>20046686</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>20046693</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>20046747</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>20046749</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>20046812</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>20046859</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>20046868</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>20046883</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>20046949</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>20046981</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>20046987</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>20047009</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>20047081</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>20047085</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>20047108</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>20047118</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>20047171</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>20047188</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>20047189</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>20047277</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>20047291</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>20047295</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>20047296</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>20047310</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>20047322</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>20047330</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>20047672</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>20047692</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>20047712</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>20047716</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>20047730</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>20047748</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>20047775</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>20047776</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>20047805</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>20047807</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>20047818</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>20047832</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>20047848</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -143,7 +629,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -215,7 +701,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -389,40 +875,872 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>IF('[1]adhoc - Roosters '!A3,TEXT('[1]adhoc - Roosters '!A3,"#"),"")</f>
+        <v>7148691</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>IF('[1]adhoc - Roosters '!A4,TEXT('[1]adhoc - Roosters '!A4,"#"),"")</f>
+        <v>7151751</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>IF('[1]adhoc - Roosters '!A5,TEXT('[1]adhoc - Roosters '!A5,"#"),"")</f>
+        <v>20045763</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>IF('[1]adhoc - Roosters '!A6,TEXT('[1]adhoc - Roosters '!A6,"#"),"")</f>
+        <v>20045773</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>IF('[1]adhoc - Roosters '!A7,TEXT('[1]adhoc - Roosters '!A7,"#"),"")</f>
+        <v>20046068</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>IF('[1]adhoc - Roosters '!A8,TEXT('[1]adhoc - Roosters '!A8,"#"),"")</f>
+        <v>20046310</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>IF('[1]adhoc - Roosters '!A9,TEXT('[1]adhoc - Roosters '!A9,"#"),"")</f>
+        <v>20046336</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>IF('[1]adhoc - Roosters '!A10,TEXT('[1]adhoc - Roosters '!A10,"#"),"")</f>
+        <v>20046357</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>IF('[1]adhoc - Roosters '!A11,TEXT('[1]adhoc - Roosters '!A11,"#"),"")</f>
+        <v>20046480</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>IF('[1]adhoc - Roosters '!A12,TEXT('[1]adhoc - Roosters '!A12,"#"),"")</f>
+        <v>20046490</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f>IF('[1]adhoc - Roosters '!A13,TEXT('[1]adhoc - Roosters '!A13,"#"),"")</f>
+        <v>20046544</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f>IF('[1]adhoc - Roosters '!A14,TEXT('[1]adhoc - Roosters '!A14,"#"),"")</f>
+        <v>20046555</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>IF('[1]adhoc - Roosters '!A15,TEXT('[1]adhoc - Roosters '!A15,"#"),"")</f>
+        <v>20046575</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>IF('[1]adhoc - Roosters '!A16,TEXT('[1]adhoc - Roosters '!A16,"#"),"")</f>
+        <v>20046636</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f>IF('[1]adhoc - Roosters '!A17,TEXT('[1]adhoc - Roosters '!A17,"#"),"")</f>
+        <v>20046659</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>IF('[1]adhoc - Roosters '!A18,TEXT('[1]adhoc - Roosters '!A18,"#"),"")</f>
+        <v>20046686</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f>IF('[1]adhoc - Roosters '!A19,TEXT('[1]adhoc - Roosters '!A19,"#"),"")</f>
+        <v>20046693</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f>IF('[1]adhoc - Roosters '!A20,TEXT('[1]adhoc - Roosters '!A20,"#"),"")</f>
+        <v>20046747</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f>IF('[1]adhoc - Roosters '!A21,TEXT('[1]adhoc - Roosters '!A21,"#"),"")</f>
+        <v>20046749</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <f>IF('[1]adhoc - Roosters '!A22,TEXT('[1]adhoc - Roosters '!A22,"#"),"")</f>
+        <v>20046812</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <f>IF('[1]adhoc - Roosters '!A23,TEXT('[1]adhoc - Roosters '!A23,"#"),"")</f>
+        <v>20046859</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <f>IF('[1]adhoc - Roosters '!A24,TEXT('[1]adhoc - Roosters '!A24,"#"),"")</f>
+        <v>20046868</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <f>IF('[1]adhoc - Roosters '!A25,TEXT('[1]adhoc - Roosters '!A25,"#"),"")</f>
+        <v>20046883</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <f>IF('[1]adhoc - Roosters '!A26,TEXT('[1]adhoc - Roosters '!A26,"#"),"")</f>
+        <v>20046949</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <f>IF('[1]adhoc - Roosters '!A27,TEXT('[1]adhoc - Roosters '!A27,"#"),"")</f>
+        <v>20046981</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <f>IF('[1]adhoc - Roosters '!A28,TEXT('[1]adhoc - Roosters '!A28,"#"),"")</f>
+        <v>20046987</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <f>IF('[1]adhoc - Roosters '!A29,TEXT('[1]adhoc - Roosters '!A29,"#"),"")</f>
+        <v>20047009</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <f>IF('[1]adhoc - Roosters '!A30,TEXT('[1]adhoc - Roosters '!A30,"#"),"")</f>
+        <v>20047081</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <f>IF('[1]adhoc - Roosters '!A31,TEXT('[1]adhoc - Roosters '!A31,"#"),"")</f>
+        <v>20047085</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <f>IF('[1]adhoc - Roosters '!A32,TEXT('[1]adhoc - Roosters '!A32,"#"),"")</f>
+        <v>20047108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f>IF('[1]adhoc - Roosters '!A33,TEXT('[1]adhoc - Roosters '!A33,"#"),"")</f>
+        <v>20047118</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <f>IF('[1]adhoc - Roosters '!A34,TEXT('[1]adhoc - Roosters '!A34,"#"),"")</f>
+        <v>20047171</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f>IF('[1]adhoc - Roosters '!A35,TEXT('[1]adhoc - Roosters '!A35,"#"),"")</f>
+        <v>20047188</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f>IF('[1]adhoc - Roosters '!A36,TEXT('[1]adhoc - Roosters '!A36,"#"),"")</f>
+        <v>20047189</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <f>IF('[1]adhoc - Roosters '!A37,TEXT('[1]adhoc - Roosters '!A37,"#"),"")</f>
+        <v>20047277</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <f>IF('[1]adhoc - Roosters '!A38,TEXT('[1]adhoc - Roosters '!A38,"#"),"")</f>
+        <v>20047291</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <f>IF('[1]adhoc - Roosters '!A39,TEXT('[1]adhoc - Roosters '!A39,"#"),"")</f>
+        <v>20047295</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <f>IF('[1]adhoc - Roosters '!A40,TEXT('[1]adhoc - Roosters '!A40,"#"),"")</f>
+        <v>20047296</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <f>IF('[1]adhoc - Roosters '!A41,TEXT('[1]adhoc - Roosters '!A41,"#"),"")</f>
+        <v>20047310</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <f>IF('[1]adhoc - Roosters '!A42,TEXT('[1]adhoc - Roosters '!A42,"#"),"")</f>
+        <v>20047322</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
+        <f>IF('[1]adhoc - Roosters '!A43,TEXT('[1]adhoc - Roosters '!A43,"#"),"")</f>
+        <v>20047330</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
+        <f>IF('[1]adhoc - Roosters '!A44,TEXT('[1]adhoc - Roosters '!A44,"#"),"")</f>
+        <v>20047672</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <f>IF('[1]adhoc - Roosters '!A45,TEXT('[1]adhoc - Roosters '!A45,"#"),"")</f>
+        <v>20047692</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <f>IF('[1]adhoc - Roosters '!A46,TEXT('[1]adhoc - Roosters '!A46,"#"),"")</f>
+        <v>20047712</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <f>IF('[1]adhoc - Roosters '!A47,TEXT('[1]adhoc - Roosters '!A47,"#"),"")</f>
+        <v>20047716</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <f>IF('[1]adhoc - Roosters '!A48,TEXT('[1]adhoc - Roosters '!A48,"#"),"")</f>
+        <v>20047730</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
+        <f>IF('[1]adhoc - Roosters '!A49,TEXT('[1]adhoc - Roosters '!A49,"#"),"")</f>
+        <v>20047748</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <f>IF('[1]adhoc - Roosters '!A50,TEXT('[1]adhoc - Roosters '!A50,"#"),"")</f>
+        <v>20047775</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
+        <f>IF('[1]adhoc - Roosters '!A51,TEXT('[1]adhoc - Roosters '!A51,"#"),"")</f>
+        <v>20047776</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
+        <f>IF('[1]adhoc - Roosters '!A52,TEXT('[1]adhoc - Roosters '!A52,"#"),"")</f>
+        <v>20047805</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
+        <f>IF('[1]adhoc - Roosters '!A53,TEXT('[1]adhoc - Roosters '!A53,"#"),"")</f>
+        <v>20047807</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
+        <f>IF('[1]adhoc - Roosters '!A54,TEXT('[1]adhoc - Roosters '!A54,"#"),"")</f>
+        <v>20047818</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="str">
+        <f>IF('[1]adhoc - Roosters '!A55,TEXT('[1]adhoc - Roosters '!A55,"#"),"")</f>
+        <v>20047832</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="str">
+        <f>IF('[1]adhoc - Roosters '!A56,TEXT('[1]adhoc - Roosters '!A56,"#"),"")</f>
+        <v>20047848</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -434,35 +1752,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
